--- a/LampGame/LampGame/Stages.xlsx
+++ b/LampGame/LampGame/Stages.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\LampGame\LampGame\LampGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -479,7 +479,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BL16" sqref="BL16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -674,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="BK1" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL1" s="1">
         <v>0</v>
@@ -976,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="BK2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL2" s="1">
         <v>0</v>
@@ -1278,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="BK3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL3" s="1">
         <v>0</v>
@@ -3395,22 +3397,22 @@
         <v>1</v>
       </c>
       <c r="BL10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BM10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BN10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BQ10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BR10" s="1">
         <v>1</v>

--- a/LampGame/LampGame/Stages.xlsx
+++ b/LampGame/LampGame/Stages.xlsx
@@ -1,56 +1,381 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13710" windowHeight="5265"/>
+    <workbookView windowWidth="12600" windowHeight="8615"/>
   </bookViews>
   <sheets>
     <sheet name="LampGame_ステージ1-1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
-      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -60,33 +385,275 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -101,30 +668,78 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
+    <cellStyle name="入力" xfId="2" builtinId="20"/>
+    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
+    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
+    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
+    <cellStyle name="通貨" xfId="6" builtinId="4"/>
+    <cellStyle name="20% - アクセント 4" xfId="7" builtinId="42"/>
+    <cellStyle name="メモ" xfId="8" builtinId="10"/>
+    <cellStyle name="パーセント" xfId="9" builtinId="5"/>
+    <cellStyle name="ハイパーリンク" xfId="10" builtinId="8"/>
+    <cellStyle name="アクセント 2" xfId="11" builtinId="33"/>
+    <cellStyle name="訪問済ハイパーリンク" xfId="12" builtinId="9"/>
+    <cellStyle name="良い" xfId="13" builtinId="26"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11"/>
+    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
+    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
+    <cellStyle name="説明文" xfId="17" builtinId="53"/>
+    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
+    <cellStyle name="出力" xfId="19" builtinId="21"/>
+    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
+    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
+    <cellStyle name="計算" xfId="22" builtinId="22"/>
+    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
+    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
+    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
+    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
+    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
+    <cellStyle name="集計" xfId="28" builtinId="25"/>
+    <cellStyle name="悪い" xfId="29" builtinId="27"/>
+    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
+    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
+    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
+    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
+    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
+    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
+    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
+    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
+    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
+    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
+    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="6">
     <dxf>
       <font>
         <color auto="1"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor theme="5" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
@@ -134,69 +749,21 @@
         <color theme="0"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -206,9 +773,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -257,7 +821,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -292,7 +856,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -466,29 +1030,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BL16" sqref="BL16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="BF24" sqref="BF24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="3" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:100">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -652,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="BC1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD1" s="1">
         <v>0</v>
@@ -790,7 +1349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:100">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -954,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="BC2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2" s="1">
         <v>0</v>
@@ -1092,7 +1651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:100">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1256,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="BC3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD3" s="1">
         <v>0</v>
@@ -1394,7 +1953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:100" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:100">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1555,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="BB4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="1">
         <v>1</v>
@@ -1573,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="BH4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI4" s="1">
         <v>0</v>
@@ -1696,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:100">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1860,16 +2419,16 @@
         <v>0</v>
       </c>
       <c r="BC5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG5" s="1">
         <v>0</v>
@@ -1998,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:100" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:100">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -2300,7 +2859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:100" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:100">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -2602,7 +3161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:100" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:100">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -2904,7 +3463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:100">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -2969,22 +3528,22 @@
         <v>0</v>
       </c>
       <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
         <v>3</v>
-      </c>
-      <c r="W9" s="1">
-        <v>0</v>
-      </c>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>0</v>
       </c>
       <c r="AB9" s="1">
         <v>0</v>
@@ -3041,31 +3600,31 @@
         <v>0</v>
       </c>
       <c r="AT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="1">
         <v>3</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="1">
-        <v>0</v>
       </c>
       <c r="BC9" s="1">
         <v>0</v>
@@ -3206,7 +3765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:100" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:100">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -3509,48 +4068,48 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AY9:CV10 AY4:BD4 BF4:BJ4 BE3:BE4 AY5:BJ8 BL4:CV8 A1:AX10">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
-      <formula>6</formula>
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+      <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY1:CV2 AY3:BD3 BF3:CV3 BK4:BK8">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>6</formula>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>4</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/LampGame/LampGame/Stages.xlsx
+++ b/LampGame/LampGame/Stages.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="12600" windowHeight="8615"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="LampGame_ステージ1-1" sheetId="1" r:id="rId1"/>
@@ -14,14 +19,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30,352 +29,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="6"/>
       <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -409,251 +77,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -668,79 +94,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
-    <cellStyle name="入力" xfId="2" builtinId="20"/>
-    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
-    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
-    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
-    <cellStyle name="通貨" xfId="6" builtinId="4"/>
-    <cellStyle name="20% - アクセント 4" xfId="7" builtinId="42"/>
-    <cellStyle name="メモ" xfId="8" builtinId="10"/>
-    <cellStyle name="パーセント" xfId="9" builtinId="5"/>
-    <cellStyle name="ハイパーリンク" xfId="10" builtinId="8"/>
-    <cellStyle name="アクセント 2" xfId="11" builtinId="33"/>
-    <cellStyle name="訪問済ハイパーリンク" xfId="12" builtinId="9"/>
-    <cellStyle name="良い" xfId="13" builtinId="26"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11"/>
-    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
-    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
-    <cellStyle name="説明文" xfId="17" builtinId="53"/>
-    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
-    <cellStyle name="出力" xfId="19" builtinId="21"/>
-    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
-    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
-    <cellStyle name="計算" xfId="22" builtinId="22"/>
-    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
-    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
-    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
-    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
-    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
-    <cellStyle name="集計" xfId="28" builtinId="25"/>
-    <cellStyle name="悪い" xfId="29" builtinId="27"/>
-    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
-    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
-    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
-    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
-    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
-    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
-    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
-    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
-    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
-    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
-    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
     <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="5" tint="-0.499984740745262"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -757,7 +125,24 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="5"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -768,11 +153,55 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1030,24 +459,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="BF24" sqref="BF24"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CR9" sqref="CR9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="3" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100">
+    <row r="1" spans="1:100" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1349,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:100">
+    <row r="2" spans="1:100" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1651,7 +1080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:100">
+    <row r="3" spans="1:100" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1953,7 +1382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:100">
+    <row r="4" spans="1:100" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2255,7 +1684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:100">
+    <row r="5" spans="1:100" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2557,7 +1986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:100">
+    <row r="6" spans="1:100" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -2859,7 +2288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:100">
+    <row r="7" spans="1:100" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -3161,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:100">
+    <row r="8" spans="1:100" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -3448,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="CR8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CS8" s="1">
         <v>0</v>
@@ -3463,7 +2892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:100">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -3765,7 +3194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:100">
+    <row r="10" spans="1:100" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -4052,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="CR10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CS10" s="1">
         <v>1</v>
@@ -4068,48 +3497,48 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AY9:CV10 AY4:BD4 BF4:BJ4 BE3:BE4 AY5:BJ8 BL4:CV8 A1:AX10">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY1:CV2 AY3:BD3 BF3:CV3 BK4:BK8">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>